--- a/Обработка документов/пример.xlsx
+++ b/Обработка документов/пример.xlsx
@@ -21,12 +21,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>№ записи</t>
+  </si>
+  <si>
+    <t>№ Документа</t>
+  </si>
+  <si>
     <t>Дата документа</t>
   </si>
   <si>
     <t>Заказчик</t>
   </si>
   <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
     <t>Название услуги/Товара</t>
   </si>
   <si>
@@ -37,15 +46,6 @@
   </si>
   <si>
     <t>Стоимость</t>
-  </si>
-  <si>
-    <t>№ Документа</t>
-  </si>
-  <si>
-    <t>№ записи</t>
-  </si>
-  <si>
-    <t>Исполнитель</t>
   </si>
 </sst>
 </file>
@@ -81,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -363,20 +366,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="114.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -384,32 +387,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Обработка документов/пример.xlsx
+++ b/Обработка документов/пример.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>№ записи</t>
   </si>
@@ -46,6 +46,63 @@
   </si>
   <si>
     <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Размещение в гостинице Green Palace Vnukovo (Стандартный одноместный) Таланин А.В. 01.11.2021-13.11.2021 года</t>
+  </si>
+  <si>
+    <t>3 000,00</t>
+  </si>
+  <si>
+    <t>36 000,00</t>
+  </si>
+  <si>
+    <t>Размещение в гостинице Green Palace Vnukovo (Стандартный одноместный) Ахычов Ибрагим 01.11.2021-04.12.2021 года</t>
+  </si>
+  <si>
+    <t>2 100,00</t>
+  </si>
+  <si>
+    <t>69 300,00</t>
+  </si>
+  <si>
+    <t>от 04 декабря 2021 r.</t>
+  </si>
+  <si>
+    <t>ООО "УК "ГОРИЗОНТ",</t>
+  </si>
+  <si>
+    <t>№ 514</t>
+  </si>
+  <si>
+    <t>ООО "КОМБИНАТ ИННОВАЦИОННЫХ ТЕХНОЛОГИЙ - MOHAPX", ИНН</t>
+  </si>
+  <si>
+    <t>Работа мини погрузчика MUSTANG 2066 no договору комиссии NeK-01/21 от 01.04.2021, за период: Ноябрь 2021 г.</t>
+  </si>
+  <si>
+    <t>1 250,00</t>
+  </si>
+  <si>
+    <t>137 500,00</t>
+  </si>
+  <si>
+    <t>|Доставка минипогрузчика no договору комиссии №К-01/21 от 01.04.2021, за период: Ноябрь 2021 г.</t>
+  </si>
+  <si>
+    <t>5 000,00</t>
+  </si>
+  <si>
+    <t>30 ноября 2021 .</t>
+  </si>
+  <si>
+    <t>ООО "МонАрх и М"</t>
+  </si>
+  <si>
+    <t>№ 3130</t>
+  </si>
+  <si>
+    <t>ООО "Комбинат Инновационных Технологий - МонАрх"</t>
   </si>
 </sst>
 </file>
@@ -81,11 +138,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,12 +431,11 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="114.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -414,14 +467,239 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>